--- a/src/test/resources/testdata/CreateAirlineData.xlsx
+++ b/src/test/resources/testdata/CreateAirlineData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -27,10 +27,121 @@
     <t>Country</t>
   </si>
   <si>
-    <t>AirlinePluto</t>
-  </si>
-  <si>
     <t>India</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Slogan</t>
+  </si>
+  <si>
+    <t>HeadQuarter</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Established</t>
+  </si>
+  <si>
+    <t>AirlinePluto1</t>
+  </si>
+  <si>
+    <t>AirlinePluto2</t>
+  </si>
+  <si>
+    <t>AirlinePluto3</t>
+  </si>
+  <si>
+    <t>AirlinePluto4</t>
+  </si>
+  <si>
+    <t>AirlinePluto5</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Logo1</t>
+  </si>
+  <si>
+    <t>Slogan1</t>
+  </si>
+  <si>
+    <t>Logo2</t>
+  </si>
+  <si>
+    <t>Logo3</t>
+  </si>
+  <si>
+    <t>Logo4</t>
+  </si>
+  <si>
+    <t>Logo5</t>
+  </si>
+  <si>
+    <t>Slogan2</t>
+  </si>
+  <si>
+    <t>Slogan3</t>
+  </si>
+  <si>
+    <t>Slogan4</t>
+  </si>
+  <si>
+    <t>Slogan5</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>Colombo</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>Shangai</t>
+  </si>
+  <si>
+    <t>Website1</t>
+  </si>
+  <si>
+    <t>Website2</t>
+  </si>
+  <si>
+    <t>Website3</t>
+  </si>
+  <si>
+    <t>Website4</t>
+  </si>
+  <si>
+    <t>Website5</t>
+  </si>
+  <si>
+    <t>RandomNumber_6</t>
+  </si>
+  <si>
+    <t>RandomNumber</t>
+  </si>
+  <si>
+    <t>RandomNumber_5</t>
+  </si>
+  <si>
+    <t>RandomNumber_4</t>
   </si>
 </sst>
 </file>
@@ -46,12 +157,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -81,9 +198,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,81 +503,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>100001</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1999</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>100002</v>
+        <v>5354366</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>100003</v>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>100004</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2002</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>100005</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2003</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/CreateAirlineData.xlsx
+++ b/src/test/resources/testdata/CreateAirlineData.xlsx
@@ -506,7 +506,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +516,7 @@
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
